--- a/new_graph_build/DL04_annotation_20220321 cyr combined.xlsx
+++ b/new_graph_build/DL04_annotation_20220321 cyr combined.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\weiping\dev\rasa_426\new_graph_build\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\weiping\dev\rasa_505\new_graph_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE81B57B-E67E-4A8C-BBF1-35C4EE6BE75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC7D6DE-EA68-4F24-8B84-34BA59DBC4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{12DD387A-0EB2-477F-ABE0-AE22849739F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{12DD387A-0EB2-477F-ABE0-AE22849739F4}"/>
   </bookViews>
   <sheets>
     <sheet name="DL04" sheetId="3" r:id="rId1"/>
@@ -956,7 +956,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="519">
   <si>
     <t>DL04</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4780,6 +4780,21 @@
 2、血压高
 3、拉肚子、胃炎、肠炎、胃病、
 4、抑郁、精神分裂、焦虑、神经病、精神异常/不正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、根治性治疗
+2、鳞癌
+3、临床分期
+4、组织学类型
+5、肺癌
+6、局部晚期
+7、III期
+8、IV期
+9、II期
+10、转移性非小细胞肺癌
+11、腺癌
+12、NSCLC
+</t>
   </si>
 </sst>
 </file>
@@ -6658,8 +6673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD63055-07F4-4594-8BE0-194FC94EB51F}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6810,7 +6825,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>510</v>
@@ -7144,7 +7159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070E72AF-FF6F-43FC-9531-A153FAD1DDB2}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -8417,7 +8432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E722E802-E886-407E-94E2-5A88436256BE}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
@@ -11560,12 +11575,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010099F474F600D05146912A548CFFB3B3DE" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd1e41a35726873ac6091597d8bfca82">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="060f33fb-d6f8-41d3-bc35-c7620efd4ad0" xmlns:ns3="240bb027-5beb-4c51-8c68-3e71576f565c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e32dd6ec86430cdd980600f8bc57aae4" ns2:_="" ns3:_="">
     <xsd:import namespace="060f33fb-d6f8-41d3-bc35-c7620efd4ad0"/>
@@ -11730,6 +11739,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFABE7C6-D1B3-4CD5-A6EF-ED1B84B759D8}">
   <ds:schemaRefs>
@@ -11739,15 +11754,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B63F4C5-93C2-4082-B8DD-25012DD4CFEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70ABE67E-D87E-479A-B257-FE11B75E67E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11764,4 +11770,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B63F4C5-93C2-4082-B8DD-25012DD4CFEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/new_graph_build/DL04_annotation_20220321 cyr combined.xlsx
+++ b/new_graph_build/DL04_annotation_20220321 cyr combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\weiping\dev\rasa_505\new_graph_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC7D6DE-EA68-4F24-8B84-34BA59DBC4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA6FFFE-69F3-4C16-80FE-A3530D023365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{12DD387A-0EB2-477F-ABE0-AE22849739F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{12DD387A-0EB2-477F-ABE0-AE22849739F4}"/>
   </bookViews>
   <sheets>
     <sheet name="DL04" sheetId="3" r:id="rId1"/>
@@ -956,7 +956,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="521">
   <si>
     <t>DL04</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3952,9 +3952,6 @@
     <t>与未绝育的男性伴侣性生活活跃、且有生育能力女性具有绝经后状态或血清妊娠试验结果为阴性的证据。
 A)对于有生育能力的女性，在筛选访视时必须具有血清妊娠试验阴性结果（试验的灵敏度必须至少为25 mIU/mL），每次研究干预给药前尿β-HCG妊娠试验结果必须呈阴性。
 B)女性在无其他医学原因的情况下停经12个月或接受过绝育手术（双侧卵巢切除术或子宫切除术）被认为绝经。</t>
-  </si>
-  <si>
-    <t>至少有一个根据RECIST 1.1标准判断的可测量的病灶。注：如果既往接受过放疗的病灶边界清晰、根据RECIST可测量且已明显进展，则可视为靶病灶。</t>
   </si>
   <si>
     <t>page</t>
@@ -4795,6 +4792,15 @@
 11、腺癌
 12、NSCLC
 </t>
+  </si>
+  <si>
+    <t>随机化至既往 T-DXd 研究，不考虑治疗分配。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 不能或不愿意接受叶酸或维生素B12补充剂。</t>
+  </si>
+  <si>
+    <t>至少有一个根据RECIST  1.1标准判断的可测量的病灶。注：如果既往接受过放疗的病灶边界清晰、根据RECIST可测量且已明显进展，则可视为靶病灶。</t>
   </si>
 </sst>
 </file>
@@ -5975,7 +5981,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="114.6" customHeight="1">
@@ -5983,7 +5989,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -6002,7 +6008,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -6021,7 +6027,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -6036,17 +6042,17 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -6204,7 +6210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8FC4D1-FD36-41E1-B9DB-3C57396D89CC}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -6219,7 +6227,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="77" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6237,7 +6245,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="79" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="183.6" customHeight="1">
@@ -6245,7 +6253,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -6348,14 +6356,14 @@
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>38</v>
@@ -6369,7 +6377,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -6439,7 +6447,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="80">
@@ -6451,7 +6459,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
@@ -6477,10 +6485,10 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G13" s="80">
         <v>65</v>
@@ -6496,7 +6504,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="80">
@@ -6569,7 +6577,7 @@
         <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>77</v>
@@ -6590,10 +6598,10 @@
         <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -6673,14 +6681,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD63055-07F4-4594-8BE0-194FC94EB51F}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="125.88671875" customWidth="1"/>
+    <col min="2" max="2" width="169" customWidth="1"/>
     <col min="3" max="3" width="52.77734375" customWidth="1"/>
     <col min="4" max="4" width="28.44140625" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
@@ -6689,7 +6697,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6707,7 +6715,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="79" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="114.6" customHeight="1">
@@ -6715,7 +6723,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -6725,7 +6733,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G2" s="80">
         <v>63</v>
@@ -6765,7 +6773,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G4" s="80">
         <v>64</v>
@@ -6786,7 +6794,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G5" s="80">
         <v>64</v>
@@ -6807,7 +6815,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G6" s="80">
         <v>65</v>
@@ -6825,10 +6833,10 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G7" s="80">
         <v>65</v>
@@ -6839,7 +6847,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -6849,7 +6857,7 @@
         <v>445</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G8" s="80">
         <v>65</v>
@@ -6870,7 +6878,7 @@
         <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G9" s="80">
         <v>65</v>
@@ -6891,7 +6899,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G10" s="80">
         <v>65</v>
@@ -6909,7 +6917,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="80">
@@ -6921,7 +6929,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
@@ -6947,10 +6955,10 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G13" s="80">
         <v>65</v>
@@ -6966,7 +6974,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="80">
@@ -6986,7 +6994,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G15" s="80">
         <v>66</v>
@@ -7007,7 +7015,7 @@
         <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G16" s="80">
         <v>67</v>
@@ -7028,7 +7036,7 @@
         <v>74</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G17" s="80">
         <v>67</v>
@@ -7039,7 +7047,7 @@
         <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>77</v>
@@ -7049,7 +7057,7 @@
         <v>78</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G18" s="80">
         <v>67</v>
@@ -7060,17 +7068,17 @@
         <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G19" s="80">
         <v>68</v>
@@ -7193,7 +7201,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="114.6" customHeight="1">
@@ -7224,7 +7232,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>89</v>
@@ -7233,10 +7241,10 @@
         <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G3" s="77">
         <v>68</v>
@@ -7247,7 +7255,7 @@
         <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>89</v>
@@ -7313,7 +7321,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>103</v>
@@ -7403,7 +7411,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>119</v>
@@ -7412,7 +7420,7 @@
         <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>120</v>
@@ -7470,7 +7478,7 @@
         <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>125</v>
@@ -7795,8 +7803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D784C70D-BB82-4D43-8C41-8A16CD8E3231}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7829,7 +7837,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="114.6" customHeight="1">
@@ -7849,7 +7857,7 @@
         <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G2" s="77">
         <v>68</v>
@@ -7860,7 +7868,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>89</v>
@@ -7869,10 +7877,10 @@
         <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G3" s="77">
         <v>68</v>
@@ -7883,7 +7891,7 @@
         <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>89</v>
@@ -7915,7 +7923,7 @@
         <v>446</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G5" s="77">
         <v>68</v>
@@ -7938,7 +7946,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G6" s="77">
         <v>68</v>
@@ -7949,7 +7957,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>103</v>
@@ -7961,7 +7969,7 @@
         <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G7" s="77">
         <v>68</v>
@@ -7984,7 +7992,7 @@
         <v>109</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G8" s="77">
         <v>69</v>
@@ -8039,7 +8047,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>119</v>
@@ -8048,10 +8056,10 @@
         <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G11" s="77">
         <v>69</v>
@@ -8074,7 +8082,7 @@
         <v>447</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G12" s="77">
         <v>69</v>
@@ -8106,7 +8114,7 @@
         <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>125</v>
@@ -8118,7 +8126,7 @@
         <v>449</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G14" s="77">
         <v>69</v>
@@ -8141,7 +8149,7 @@
         <v>450</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G15" s="77">
         <v>69</v>
@@ -8208,7 +8216,7 @@
         <v>452</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G18" s="77">
         <v>70</v>
@@ -8237,7 +8245,7 @@
         <v>141</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>142</v>
+        <v>519</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -8265,7 +8273,7 @@
         <v>147</v>
       </c>
       <c r="F21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G21" s="77">
         <v>70</v>
@@ -8276,7 +8284,7 @@
         <v>149</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>150</v>
+        <v>518</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
@@ -8286,7 +8294,7 @@
         <v>151</v>
       </c>
       <c r="F22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G22" s="77">
         <v>70</v>
@@ -8307,7 +8315,7 @@
         <v>155</v>
       </c>
       <c r="F23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G23" s="77">
         <v>70</v>
@@ -8346,7 +8354,7 @@
         <v>162</v>
       </c>
       <c r="F25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G25" s="77">
         <v>70</v>
@@ -8367,7 +8375,7 @@
         <v>166</v>
       </c>
       <c r="F26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G26" s="77">
         <v>70</v>
@@ -11566,15 +11574,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010099F474F600D05146912A548CFFB3B3DE" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd1e41a35726873ac6091597d8bfca82">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="060f33fb-d6f8-41d3-bc35-c7620efd4ad0" xmlns:ns3="240bb027-5beb-4c51-8c68-3e71576f565c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e32dd6ec86430cdd980600f8bc57aae4" ns2:_="" ns3:_="">
     <xsd:import namespace="060f33fb-d6f8-41d3-bc35-c7620efd4ad0"/>
@@ -11739,6 +11738,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -11746,14 +11754,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFABE7C6-D1B3-4CD5-A6EF-ED1B84B759D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70ABE67E-D87E-479A-B257-FE11B75E67E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11772,6 +11772,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFABE7C6-D1B3-4CD5-A6EF-ED1B84B759D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B63F4C5-93C2-4082-B8DD-25012DD4CFEF}">
   <ds:schemaRefs>

--- a/new_graph_build/DL04_annotation_20220321 cyr combined.xlsx
+++ b/new_graph_build/DL04_annotation_20220321 cyr combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\weiping\dev\rasa_505\new_graph_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA6FFFE-69F3-4C16-80FE-A3530D023365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E770D3-87CD-4730-9553-6F750023F2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{12DD387A-0EB2-477F-ABE0-AE22849739F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{12DD387A-0EB2-477F-ABE0-AE22849739F4}"/>
   </bookViews>
   <sheets>
     <sheet name="DL04" sheetId="3" r:id="rId1"/>
@@ -2199,20 +2199,6 @@
     <t>第16条</t>
   </si>
   <si>
-    <t>既往抗癌治疗后毒性未缓解，定义为毒性尚未缓解至≤1 级或基线（脱发除外）。
-注：发生研究者认为与既往抗癌治疗相关的慢性、稳定的 2 级毒性（定义为在入组前至少 3 个月内未恶化至 &gt; 2 级，并通过标准治疗进行管理）的受试者可入选研究，例如：
-− 化疗引起的神经病变
-− 疲乏
-− 既往 IO 治疗的残留毒性： 1 级或 2 级内分泌疾病，可能包括：
-o 甲状腺功能减退症/甲状腺功能亢进症
-o 1 型糖尿病
-o 高血糖症
-o 肾上腺功能不全
-o 肾上腺炎
-o 皮肤色素减退（白癜风）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.既往接受抗癌治疗后AE未降至≤1 级或基线（脱发除外）。
 2. 入组前至少 3 个月内未恶化至 &gt; 2 级，并通过标准治疗进行管理的2级AE受试者可以入选，包括免疫治疗</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2337,10 +2323,6 @@
     <t>第20条</t>
   </si>
   <si>
-    <t>随机化至既往 T-DXd 研究，不考虑治疗分配。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、T-DXd
 2、8201</t>
   </si>
@@ -2401,10 +2383,6 @@
   </si>
   <si>
     <t>第22条</t>
-  </si>
-  <si>
-    <t>已知会对研究干预药物或任何研究药物辅料或其他 mAb 产生过敏反应或超敏反应。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、过敏
@@ -3925,25 +3903,7 @@
     <t>混合型小细胞肺癌、鳞状组织学NSCLC和肉瘤样组织学变异型NSCLC。</t>
   </si>
   <si>
-    <t>任何脊髓压迫、软脑膜疾病或临床活动性 CNS 转移。 注： 临床活动性 CNS转移定义为未经治疗且有症状的、或需要皮质类固醇或抗惊厥药治疗以控制相关症状。
-CNS 转移受试者必须既往完成过局部治疗。
-−  如果无症状或神经系统稳定且已从既往治疗的急性毒性作用中恢复，则允许既往接受过治疗的 CNS 转移受试者入组。
-− 接受放疗的 CNS 转移受试者必须符合以下要求：
-o 入组前行立体定向放射手术或伽玛刀后≥7 天。
-o 入组前接受全脑放射治疗后≥14 天。</t>
-  </si>
-  <si>
     <t>3年内存在多种原发性恶性肿瘤情况，以下除外：已充分切除的非黑素性皮肤癌、已治愈的原位疾病、其他已治愈的实体瘤。</t>
-  </si>
-  <si>
-    <t>基于筛选期三次 12 导联 ECG 结果平均值， QTcF 延长至&gt;470 msec（女性）或&gt;450msec（男性）。</t>
-  </si>
-  <si>
-    <t>有需要类固醇激素治疗的（非感染性） ILD/非感染性肺炎病史、当前有ILD/非感染性肺炎、或筛选时影像学检查不能排除疑似 ILD/非感染性肺炎。</t>
-  </si>
-  <si>
-    <t>活动性原发性免疫缺陷，已知存在 HIV感染，或活动性乙型肝炎或丙型肝炎感染。
-注： HCV 抗体呈阳性的受试者仅聚合酶链反应显示 HCV RNA呈阴性的情况下可参与本项研究。如果当地法规或机构审评委员会/伦理委员会要求，受试者应在随机化/入组前接受 HIV 检测。</t>
   </si>
   <si>
     <t>T-DXd首次给药前30天内接种减毒活疫苗。注：入组后，受试者在研究期间及研究干预治疗末次给药后 30 天内不得接种活疫苗。</t>
@@ -4514,9 +4474,6 @@
 − 任何不需要全身治疗的慢性皮肤病受试者。
 − 在过去 5 年内没有活动性疾病的受试者可以入组，但是仅在咨询阿斯利康研究医师后方可纳入。
 − 仅依靠饮食即可控制乳糜泻的受试者。</t>
-  </si>
-  <si>
-    <t>随机化/入组前 6 个月内有心肌梗死病史或患有症状性充血性心脏衰竭（NYHA II 至IV级）的受试者。注：筛选时肌钙蛋白水平高于ULN（由生产商规定）且无任何心肌梗死相关症状的受试者应在入选前接受心脏病会诊，以排除心肌梗死。</t>
   </si>
   <si>
     <t>肺部标准：
@@ -4794,13 +4751,59 @@
 </t>
   </si>
   <si>
-    <t>随机化至既往 T-DXd 研究，不考虑治疗分配。</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 不能或不愿意接受叶酸或维生素B12补充剂。</t>
   </si>
   <si>
     <t>至少有一个根据RECIST  1.1标准判断的可测量的病灶。注：如果既往接受过放疗的病灶边界清晰、根据RECIST可测量且已明显进展，则可视为靶病灶。</t>
+  </si>
+  <si>
+    <t>1、心肌梗死
+2、心脏衰竭
+3、充血性
+4、NYHA
+5、肌钙蛋白
+6、心绞痛
+7、心功能</t>
+  </si>
+  <si>
+    <t>已知会对研究干预药物或任何研究药物辅料或其他mAb产生过敏反应或超敏反应。</t>
+  </si>
+  <si>
+    <t>任何脊髓压迫、软脑膜疾病或临床活动性CNS转移。注：临床活动性 CNS转移定义为未经治疗且有症状的、或需要皮质类固醇或抗惊厥药治疗以控制相关症状。
+CNS 转移受试者必须既往完成过局部治疗。
+−  如果无症状或神经系统稳定且已从既往治疗的急性毒性作用中恢复，则允许既往接受过治疗的 CNS 转移受试者入组。
+− 接受放疗的 CNS 转移受试者必须符合以下要求：
+o 入组前行立体定向放射手术或伽玛刀后≥7 天。
+o 入组前接受全脑放射治疗后≥14 天。</t>
+  </si>
+  <si>
+    <t>随机化/入组前6个月内有心肌梗死病史或患有症状性充血性心脏衰竭（NYHA II 至IV级）的受试者。注：筛选时肌钙蛋白水平高于ULN（由生产商规定）且无任何心肌梗死相关症状的受试者应在入选前接受心脏病会诊，以排除心肌梗死。</t>
+  </si>
+  <si>
+    <t>有需要类固醇激素治疗的（非感染性）ILD/非感染性肺炎病史、当前有ILD/非感染性肺炎、或筛选时影像学检查不能排除疑似 ILD/非感染性肺炎。</t>
+  </si>
+  <si>
+    <t>活动性原发性免疫缺陷，已知存在HIV感染，或活动性乙型肝炎或丙型肝炎感染。
+注： HCV 抗体呈阳性的受试者仅聚合酶链反应显示 HCV RNA呈阴性的情况下可参与本项研究。如果当地法规或机构审评委员会/伦理委员会要求，受试者应在随机化/入组前接受 HIV 检测。</t>
+  </si>
+  <si>
+    <t>既往抗癌治疗后毒性未缓解，定义为毒性尚未缓解至≤1级或基线（脱发除外）。
+注：发生研究者认为与既往抗癌治疗相关的慢性、稳定的 2 级毒性（定义为在入组前至少 3 个月内未恶化至 &gt; 2 级，并通过标准治疗进行管理）的受试者可入选研究，例如：
+− 化疗引起的神经病变
+− 疲乏
+− 既往 IO 治疗的残留毒性： 1 级或 2 级内分泌疾病，可能包括：
+o 甲状腺功能减退症/甲状腺功能亢进症
+o 1 型糖尿病
+o 高血糖症
+o 肾上腺功能不全
+o 肾上腺炎
+o 皮肤色素减退（白癜风）。</t>
+  </si>
+  <si>
+    <t>随机化至既往T-DXd研究，不考虑治疗分配。</t>
+  </si>
+  <si>
+    <t>基于筛选期三次12导联ECG结果平均值，QTcF延长至&gt;470 msec（女性）或&gt;450msec（男性）。</t>
   </si>
 </sst>
 </file>
@@ -5981,7 +5984,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="114.6" customHeight="1">
@@ -5989,7 +5992,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -6008,7 +6011,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -6027,7 +6030,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -6042,17 +6045,17 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -6210,8 +6213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8FC4D1-FD36-41E1-B9DB-3C57396D89CC}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6227,7 +6230,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="77" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6245,7 +6248,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="79" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="183.6" customHeight="1">
@@ -6253,7 +6256,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -6356,14 +6359,14 @@
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>38</v>
@@ -6377,14 +6380,14 @@
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>41</v>
@@ -6447,7 +6450,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="80">
@@ -6459,7 +6462,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
@@ -6485,10 +6488,10 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G13" s="80">
         <v>65</v>
@@ -6504,11 +6507,11 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="80">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="94.95" customHeight="1">
@@ -6556,7 +6559,7 @@
         <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>73</v>
@@ -6577,7 +6580,7 @@
         <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>77</v>
@@ -6598,10 +6601,10 @@
         <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -6682,7 +6685,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6697,7 +6700,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6715,7 +6718,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="79" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="114.6" customHeight="1">
@@ -6723,7 +6726,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -6733,7 +6736,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="G2" s="80">
         <v>63</v>
@@ -6773,7 +6776,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G4" s="80">
         <v>64</v>
@@ -6794,7 +6797,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="G5" s="80">
         <v>64</v>
@@ -6815,7 +6818,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G6" s="80">
         <v>65</v>
@@ -6833,10 +6836,10 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G7" s="80">
         <v>65</v>
@@ -6847,17 +6850,17 @@
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G8" s="80">
         <v>65</v>
@@ -6878,7 +6881,7 @@
         <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="G9" s="80">
         <v>65</v>
@@ -6899,7 +6902,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G10" s="80">
         <v>65</v>
@@ -6917,7 +6920,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="80">
@@ -6929,7 +6932,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
@@ -6955,10 +6958,10 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G13" s="80">
         <v>65</v>
@@ -6974,11 +6977,11 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="80">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="94.95" customHeight="1">
@@ -6994,7 +6997,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G15" s="80">
         <v>66</v>
@@ -7015,7 +7018,7 @@
         <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G16" s="80">
         <v>67</v>
@@ -7026,7 +7029,7 @@
         <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>73</v>
@@ -7036,7 +7039,7 @@
         <v>74</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="G17" s="80">
         <v>67</v>
@@ -7047,7 +7050,7 @@
         <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>77</v>
@@ -7057,7 +7060,7 @@
         <v>78</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G18" s="80">
         <v>67</v>
@@ -7068,17 +7071,17 @@
         <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G19" s="80">
         <v>68</v>
@@ -7167,8 +7170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070E72AF-FF6F-43FC-9531-A153FAD1DDB2}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7201,7 +7204,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="114.6" customHeight="1">
@@ -7209,7 +7212,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>84</v>
@@ -7232,7 +7235,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>89</v>
@@ -7241,10 +7244,10 @@
         <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G3" s="77">
         <v>68</v>
@@ -7255,7 +7258,7 @@
         <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>89</v>
@@ -7284,7 +7287,7 @@
         <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>97</v>
@@ -7298,7 +7301,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>99</v>
@@ -7321,7 +7324,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>103</v>
@@ -7388,7 +7391,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>115</v>
@@ -7411,7 +7414,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>470</v>
+        <v>515</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>119</v>
@@ -7420,7 +7423,7 @@
         <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>120</v>
@@ -7434,7 +7437,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>456</v>
+        <v>520</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>121</v>
@@ -7443,7 +7446,7 @@
         <v>122</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>123</v>
@@ -7457,14 +7460,14 @@
         <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>124</v>
@@ -7478,7 +7481,7 @@
         <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>125</v>
@@ -7487,7 +7490,7 @@
         <v>96</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>126</v>
@@ -7510,7 +7513,7 @@
         <v>96</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>129</v>
@@ -7524,14 +7527,14 @@
         <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>130</v>
@@ -7545,7 +7548,7 @@
         <v>131</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>132</v>
@@ -7568,19 +7571,19 @@
         <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G18" s="77">
         <v>70</v>
@@ -7591,14 +7594,14 @@
         <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G19" s="77">
         <v>70</v>
@@ -7606,17 +7609,17 @@
     </row>
     <row r="20" spans="1:7" ht="79.5" customHeight="1">
       <c r="A20" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G20" s="77">
         <v>70</v>
@@ -7624,20 +7627,20 @@
     </row>
     <row r="21" spans="1:7" ht="22.5" customHeight="1">
       <c r="A21" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="77" t="s">
         <v>147</v>
-      </c>
-      <c r="F21" s="77" t="s">
-        <v>148</v>
       </c>
       <c r="G21" s="77">
         <v>70</v>
@@ -7645,20 +7648,20 @@
     </row>
     <row r="22" spans="1:7" ht="21.45" customHeight="1">
       <c r="A22" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>150</v>
+        <v>519</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G22" s="77">
         <v>70</v>
@@ -7666,20 +7669,20 @@
     </row>
     <row r="23" spans="1:7" ht="37.950000000000003" customHeight="1">
       <c r="A23" s="77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F23" s="77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G23" s="77">
         <v>70</v>
@@ -7687,17 +7690,17 @@
     </row>
     <row r="24" spans="1:7" ht="134.4" customHeight="1">
       <c r="A24" s="77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>513</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G24" s="77">
         <v>70</v>
@@ -7705,20 +7708,20 @@
     </row>
     <row r="25" spans="1:7" ht="42" customHeight="1">
       <c r="A25" s="77" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F25" s="77" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G25" s="77">
         <v>70</v>
@@ -7726,20 +7729,20 @@
     </row>
     <row r="26" spans="1:7" ht="56.4" customHeight="1">
       <c r="A26" s="77" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E26" s="77" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F26" s="77" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G26" s="77">
         <v>70</v>
@@ -7747,20 +7750,20 @@
     </row>
     <row r="27" spans="1:7" ht="61.95" customHeight="1">
       <c r="A27" s="77" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G27" s="77">
         <v>70</v>
@@ -7768,22 +7771,22 @@
     </row>
     <row r="28" spans="1:7" ht="103.95" customHeight="1">
       <c r="A28" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="G28" s="77">
         <v>71</v>
@@ -7803,8 +7806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D784C70D-BB82-4D43-8C41-8A16CD8E3231}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7837,7 +7840,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="114.6" customHeight="1">
@@ -7845,7 +7848,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>84</v>
@@ -7857,7 +7860,7 @@
         <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="G2" s="77">
         <v>68</v>
@@ -7868,7 +7871,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>89</v>
@@ -7877,10 +7880,10 @@
         <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G3" s="77">
         <v>68</v>
@@ -7891,7 +7894,7 @@
         <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>89</v>
@@ -7920,10 +7923,10 @@
         <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G5" s="77">
         <v>68</v>
@@ -7934,7 +7937,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>99</v>
@@ -7946,7 +7949,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="G6" s="77">
         <v>68</v>
@@ -7957,7 +7960,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>103</v>
@@ -7969,7 +7972,7 @@
         <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G7" s="77">
         <v>68</v>
@@ -7992,7 +7995,7 @@
         <v>109</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G8" s="77">
         <v>69</v>
@@ -8024,7 +8027,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>115</v>
@@ -8047,7 +8050,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>470</v>
+        <v>515</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>119</v>
@@ -8056,10 +8059,10 @@
         <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="G11" s="77">
         <v>69</v>
@@ -8070,7 +8073,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>456</v>
+        <v>520</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>121</v>
@@ -8079,10 +8082,10 @@
         <v>122</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G12" s="77">
         <v>69</v>
@@ -8093,14 +8096,14 @@
         <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>124</v>
@@ -8114,7 +8117,7 @@
         <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>125</v>
@@ -8123,10 +8126,10 @@
         <v>96</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G14" s="77">
         <v>69</v>
@@ -8146,10 +8149,10 @@
         <v>96</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G15" s="77">
         <v>69</v>
@@ -8160,14 +8163,14 @@
         <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>130</v>
@@ -8181,7 +8184,7 @@
         <v>131</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>132</v>
@@ -8204,19 +8207,19 @@
         <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="G18" s="77">
         <v>70</v>
@@ -8227,14 +8230,14 @@
         <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G19" s="77">
         <v>70</v>
@@ -8242,17 +8245,17 @@
     </row>
     <row r="20" spans="1:7" ht="79.5" customHeight="1">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G20" s="77">
         <v>70</v>
@@ -8260,20 +8263,20 @@
     </row>
     <row r="21" spans="1:7" ht="22.5" customHeight="1">
       <c r="A21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="F21" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G21" s="77">
         <v>70</v>
@@ -8281,20 +8284,20 @@
     </row>
     <row r="22" spans="1:7" ht="21.45" customHeight="1">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F22" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="G22" s="77">
         <v>70</v>
@@ -8302,20 +8305,20 @@
     </row>
     <row r="23" spans="1:7" ht="37.950000000000003" customHeight="1">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F23" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G23" s="77">
         <v>70</v>
@@ -8323,17 +8326,17 @@
     </row>
     <row r="24" spans="1:7" ht="134.4" customHeight="1">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>513</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G24" s="77">
         <v>70</v>
@@ -8341,20 +8344,20 @@
     </row>
     <row r="25" spans="1:7" ht="42" customHeight="1">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F25" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="G25" s="77">
         <v>70</v>
@@ -8362,20 +8365,20 @@
     </row>
     <row r="26" spans="1:7" ht="56.4" customHeight="1">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F26" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G26" s="77">
         <v>70</v>
@@ -8383,20 +8386,20 @@
     </row>
     <row r="27" spans="1:7" ht="61.95" customHeight="1">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G27" s="77">
         <v>70</v>
@@ -8404,22 +8407,22 @@
     </row>
     <row r="28" spans="1:7" ht="103.95" customHeight="1">
       <c r="A28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="G28" s="77">
         <v>71</v>
@@ -8461,34 +8464,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24">
       <c r="A1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="I1" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>185</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="48">
@@ -8499,26 +8502,26 @@
         <v>44363</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="84">
@@ -8529,26 +8532,26 @@
         <v>44363</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="84">
@@ -8559,26 +8562,26 @@
         <v>44364</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="132">
@@ -8589,26 +8592,26 @@
         <v>44364</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>189</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="213" customHeight="1">
@@ -8619,26 +8622,26 @@
         <v>44365</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36">
@@ -8649,26 +8652,26 @@
         <v>44370</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="G7" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36">
@@ -8679,26 +8682,26 @@
         <v>44370</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="72">
@@ -8709,26 +8712,26 @@
         <v>44356</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>214</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>217</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36">
@@ -8738,17 +8741,17 @@
       <c r="D10" s="15"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>218</v>
-      </c>
       <c r="H10" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="72">
@@ -8758,17 +8761,17 @@
       <c r="D11" s="15"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="144">
@@ -8776,29 +8779,29 @@
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="F12" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="H12" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="72">
@@ -8806,29 +8809,29 @@
         <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="H13" s="12" t="s">
         <v>230</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>233</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="132">
@@ -8836,29 +8839,29 @@
         <v>11</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="H14" s="12" t="s">
         <v>235</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>238</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="96">
@@ -8869,26 +8872,26 @@
         <v>44386</v>
       </c>
       <c r="C15" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>239</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>242</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="144">
@@ -8899,26 +8902,26 @@
         <v>44407</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>247</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="72">
@@ -8929,26 +8932,26 @@
         <v>44407</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="156">
@@ -8959,26 +8962,26 @@
         <v>44412</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>251</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>254</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="180">
@@ -8990,17 +8993,17 @@
       <c r="D19" s="15"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="84">
@@ -9011,26 +9014,26 @@
         <v>44414</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="72">
@@ -9041,26 +9044,26 @@
         <v>44414</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D21" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>261</v>
-      </c>
       <c r="G21" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="72">
@@ -9071,26 +9074,26 @@
         <v>44414</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D22" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>261</v>
-      </c>
       <c r="G22" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="48">
@@ -9101,26 +9104,26 @@
         <v>44421</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="37.200000000000003" customHeight="1">
@@ -9130,17 +9133,17 @@
       <c r="D24" s="28"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="27" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="72">
@@ -9151,26 +9154,26 @@
         <v>44434</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="60">
@@ -9180,17 +9183,17 @@
       <c r="D26" s="24"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="24">
@@ -9200,17 +9203,17 @@
       <c r="D27" s="24"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="240">
@@ -9221,26 +9224,26 @@
         <v>44326</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D28" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>280</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>283</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36">
@@ -9251,24 +9254,24 @@
         <v>44387</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36">
@@ -9276,27 +9279,27 @@
         <v>24</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C30" s="14">
         <v>7401</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36">
@@ -9304,27 +9307,27 @@
         <v>25</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C31" s="14">
         <v>7401</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36">
@@ -9335,24 +9338,24 @@
         <v>44503</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36">
@@ -9366,21 +9369,21 @@
         <v>4301</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="96">
@@ -9391,26 +9394,26 @@
         <v>44538</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="151.94999999999999" customHeight="1">
@@ -9424,21 +9427,21 @@
         <v>4301</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="60">
@@ -9452,23 +9455,23 @@
         <v>4304</v>
       </c>
       <c r="D36" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="H36" s="12" t="s">
         <v>294</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>297</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="37.950000000000003" customHeight="1">
@@ -9482,23 +9485,23 @@
         <v>4301</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E37" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="H37" s="12" t="s">
         <v>299</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>302</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="36">
@@ -9512,23 +9515,23 @@
         <v>4301</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="58.95" customHeight="1">
@@ -9542,23 +9545,23 @@
         <v>4301</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="48">
@@ -9572,23 +9575,23 @@
         <v>4301</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I40" s="12"/>
       <c r="J40" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="60">
@@ -9602,23 +9605,23 @@
         <v>4301</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I41" s="27"/>
       <c r="J41" s="27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="36">
@@ -9632,21 +9635,21 @@
         <v>4301</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="330" customHeight="1">
@@ -9660,21 +9663,21 @@
         <v>7405</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="60">
@@ -9688,23 +9691,23 @@
         <v>6002</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="65.7" customHeight="1">
@@ -9714,17 +9717,17 @@
       <c r="D45" s="15"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="65.7" customHeight="1">
@@ -9734,17 +9737,17 @@
       <c r="D46" s="15"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="72">
@@ -9758,23 +9761,23 @@
         <v>6002</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="36">
@@ -9788,21 +9791,21 @@
         <v>4305</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="144">
@@ -9813,26 +9816,26 @@
         <v>44586</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="132">
@@ -9843,26 +9846,26 @@
         <v>44586</v>
       </c>
       <c r="C50" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="F50" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="G50" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="H50" s="12" t="s">
         <v>327</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>330</v>
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="60">
@@ -9873,26 +9876,26 @@
         <v>44587</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="60">
@@ -9903,26 +9906,26 @@
         <v>44587</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="60">
@@ -9936,23 +9939,23 @@
         <v>4303</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E53" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>294</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>297</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="252">
@@ -9966,23 +9969,23 @@
         <v>4301</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I54" s="12"/>
       <c r="J54" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="36">
@@ -9996,21 +9999,21 @@
         <v>4301</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I55" s="12"/>
       <c r="J55" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="36">
@@ -10024,21 +10027,21 @@
         <v>4305</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I56" s="12"/>
       <c r="J56" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="36">
@@ -10052,21 +10055,21 @@
         <v>4305</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I57" s="12"/>
       <c r="J57" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="36">
@@ -10076,17 +10079,17 @@
       <c r="D58" s="16"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I58" s="12"/>
       <c r="J58" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="108">
@@ -10100,23 +10103,23 @@
         <v>7407</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I59" s="14"/>
       <c r="J59" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="204">
@@ -10130,23 +10133,23 @@
         <v>4313</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="96">
@@ -10160,21 +10163,21 @@
         <v>4101</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E61" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="F61" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="F61" s="37" t="s">
-        <v>343</v>
-      </c>
       <c r="G61" s="37" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H61" s="37"/>
       <c r="I61" s="37"/>
       <c r="J61" s="37" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -10204,486 +10207,486 @@
   <sheetData>
     <row r="1" spans="1:8" s="42" customFormat="1" ht="46.5" customHeight="1">
       <c r="A1" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="E1" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>185</v>
-      </c>
       <c r="F1" s="41" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="47" customFormat="1" ht="57.6">
       <c r="A2" s="43" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="45" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="84">
       <c r="A3" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="48" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="96">
       <c r="A4" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="48" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="47" customFormat="1" ht="48">
       <c r="A5" s="43" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E5" s="43"/>
       <c r="F5" s="45" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="84">
       <c r="A6" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="48" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8" ht="166.5" customHeight="1">
       <c r="A7" s="54" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E7" s="54"/>
       <c r="F7" s="55" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60">
       <c r="A8" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="48" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G8" s="53"/>
       <c r="H8" s="53"/>
     </row>
     <row r="9" spans="1:8" ht="84">
       <c r="A9" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="48" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="48">
       <c r="A10" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="48" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="156">
       <c r="A11" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="48" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="60">
       <c r="A12" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="56" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:8" ht="43.2">
       <c r="A13" s="54" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E13" s="54"/>
       <c r="F13" s="58" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="36">
       <c r="A14" s="57" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:8" ht="36">
       <c r="A15" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>191</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G15" s="59" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="72">
       <c r="A16" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G16" s="59" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="132">
       <c r="A17" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="108">
       <c r="A18" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G18" s="59" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H18" s="59" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="96">
       <c r="A19" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="48" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G19" s="59" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H19" s="59" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="43.2">
       <c r="A20" s="27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="60" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G20" s="59" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H20" s="59" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="48">
       <c r="A21" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="48" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G21" s="53"/>
       <c r="H21" s="53"/>
@@ -10691,17 +10694,17 @@
     <row r="22" spans="1:8" ht="48">
       <c r="A22" s="12"/>
       <c r="B22" s="12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G22" s="53"/>
       <c r="H22" s="53"/>
@@ -10709,17 +10712,17 @@
     <row r="23" spans="1:8" ht="36">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G23" s="53"/>
       <c r="H23" s="53"/>
@@ -10727,319 +10730,319 @@
     <row r="24" spans="1:8" ht="60">
       <c r="A24" s="54"/>
       <c r="B24" s="54" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E24" s="62"/>
       <c r="F24" s="55" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="36">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="48" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="72">
       <c r="A26" s="27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="G26" t="s">
         <v>383</v>
       </c>
-      <c r="G26" t="s">
-        <v>386</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="108">
       <c r="A27" s="27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="27" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G27" s="49"/>
       <c r="H27" s="49"/>
     </row>
     <row r="28" spans="1:8" ht="84">
       <c r="A28" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="48">
       <c r="A29" s="63" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E29" s="63"/>
       <c r="F29" s="63" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="48">
       <c r="A30" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
     </row>
     <row r="31" spans="1:8" ht="115.2">
       <c r="A31" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G31" s="49" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H31" s="49" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="132">
       <c r="A32" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="27" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G32" s="49" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H32" s="49" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="228">
       <c r="A33" s="27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E33" s="27"/>
       <c r="F33" s="27" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H33" s="49" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="132">
       <c r="A34" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G34" s="49" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H34" s="49" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="156">
       <c r="A35" s="12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G35" s="49" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H35" s="49" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="180">
       <c r="A36" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G36" s="49" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H36" s="49" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="60">
       <c r="A37" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G37" s="49"/>
       <c r="H37" s="49"/>
@@ -11047,17 +11050,17 @@
     <row r="38" spans="1:8" ht="48">
       <c r="A38" s="16"/>
       <c r="B38" s="16" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G38" s="49"/>
       <c r="H38" s="49"/>
@@ -11084,70 +11087,70 @@
     </row>
     <row r="41" spans="1:8" ht="48">
       <c r="A41" s="54" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B41" s="54" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D41" s="54" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E41" s="62"/>
       <c r="F41" s="55" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G41" s="53"/>
       <c r="H41" s="53"/>
     </row>
     <row r="42" spans="1:8" ht="151.94999999999999" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="48" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G42" s="49" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H42" s="49" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="28.8">
       <c r="A43" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="B43" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="C43" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="D43" s="54" t="s">
         <v>299</v>
-      </c>
-      <c r="B43" s="54" t="s">
-        <v>300</v>
-      </c>
-      <c r="C43" s="54" t="s">
-        <v>301</v>
-      </c>
-      <c r="D43" s="54" t="s">
-        <v>302</v>
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="55" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G43" s="49" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H43" s="49" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="330" customHeight="1">
@@ -11164,402 +11167,402 @@
     </row>
     <row r="45" spans="1:8" ht="43.2">
       <c r="A45" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>294</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>297</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="48" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G45" s="49" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8">
       <c r="A46" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G46" s="49" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H46" s="49" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="48">
       <c r="A47" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H47" s="49" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="48">
       <c r="A48" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G48" s="50" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H48" s="49" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="43.2">
       <c r="A49" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E49" s="27"/>
       <c r="F49" s="48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G49" s="50" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H49" s="49" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="60">
       <c r="A50" s="64" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B50" s="65" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C50" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D50" s="66" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E50" s="62"/>
       <c r="F50" s="67" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
     </row>
     <row r="51" spans="1:8" ht="48">
       <c r="A51" s="68" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B51" s="67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C51" s="61" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E51" s="61"/>
       <c r="F51" s="69" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G51" s="49" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H51" s="70" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="43.2">
       <c r="A52" s="68" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B52" s="54" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C52" s="71" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D52" s="71" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E52" s="71"/>
       <c r="F52" s="55" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G52" s="50" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H52" s="49" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="43.2">
       <c r="A53" s="68" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B53" s="54" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C53" s="54" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D53" s="54" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E53" s="54"/>
       <c r="F53" s="55" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G53" s="49" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H53" s="49" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="60">
       <c r="A54" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="B54" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="B54" s="72" t="s">
-        <v>343</v>
-      </c>
       <c r="C54" s="72" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D54" s="72"/>
       <c r="E54" s="72"/>
       <c r="F54" s="73" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G54" s="53"/>
       <c r="H54" s="53"/>
     </row>
     <row r="55" spans="1:8" ht="43.2">
       <c r="A55" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" s="61" t="s">
         <v>214</v>
-      </c>
-      <c r="B55" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="C55" s="74" t="s">
-        <v>216</v>
-      </c>
-      <c r="D55" s="61" t="s">
-        <v>217</v>
       </c>
       <c r="E55" s="61"/>
       <c r="F55" s="75" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G55" s="49" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H55" s="49" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="24">
       <c r="A56" s="54"/>
       <c r="B56" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" s="74" t="s">
         <v>215</v>
       </c>
-      <c r="C56" s="74" t="s">
-        <v>218</v>
-      </c>
       <c r="D56" s="61" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E56" s="61"/>
       <c r="F56" s="75" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G56" s="50" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H56" s="49" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="28.8">
       <c r="A57" s="57"/>
       <c r="B57" s="57" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C57" s="58" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E57" s="61"/>
       <c r="F57" s="76" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G57" s="49" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H57" s="49" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="24">
       <c r="A58" s="54"/>
       <c r="B58" s="54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C58" s="55" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E58" s="61"/>
       <c r="F58" s="75" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G58" s="49" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H58" s="49" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="48">
       <c r="A59" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C59" s="54" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D59" s="71" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E59" s="71"/>
       <c r="F59" s="55" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G59" s="50"/>
       <c r="H59" s="50"/>
     </row>
     <row r="60" spans="1:8" ht="120">
       <c r="A60" s="54" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C60" s="54" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D60" s="54" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E60" s="54"/>
       <c r="F60" s="55" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G60" s="50" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H60" s="49" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="108">
       <c r="A61" s="12"/>
       <c r="B61" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="48" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G61" s="53"/>
       <c r="H61" s="53"/>
     </row>
     <row r="62" spans="1:8" ht="72">
       <c r="A62" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="B62" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="C62" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="D62" s="54" t="s">
         <v>327</v>
-      </c>
-      <c r="B62" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="C62" s="54" t="s">
-        <v>329</v>
-      </c>
-      <c r="D62" s="54" t="s">
-        <v>330</v>
       </c>
       <c r="E62" s="54"/>
       <c r="F62" s="55" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G62" s="53"/>
       <c r="H62" s="53"/>
@@ -11574,6 +11577,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010099F474F600D05146912A548CFFB3B3DE" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd1e41a35726873ac6091597d8bfca82">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="060f33fb-d6f8-41d3-bc35-c7620efd4ad0" xmlns:ns3="240bb027-5beb-4c51-8c68-3e71576f565c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e32dd6ec86430cdd980600f8bc57aae4" ns2:_="" ns3:_="">
     <xsd:import namespace="060f33fb-d6f8-41d3-bc35-c7620efd4ad0"/>
@@ -11738,15 +11750,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -11754,6 +11757,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFABE7C6-D1B3-4CD5-A6EF-ED1B84B759D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70ABE67E-D87E-479A-B257-FE11B75E67E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11772,14 +11783,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFABE7C6-D1B3-4CD5-A6EF-ED1B84B759D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B63F4C5-93C2-4082-B8DD-25012DD4CFEF}">
   <ds:schemaRefs>

--- a/new_graph_build/DL04_annotation_20220321 cyr combined.xlsx
+++ b/new_graph_build/DL04_annotation_20220321 cyr combined.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\weiping\dev\rasa_505\new_graph_build\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\weiping\dev\DCTA\rasa\new_graph_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA51F333-69C8-4189-966B-D9B82544A567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9155F16B-EF2E-422F-B39A-C60C927A5C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{12DD387A-0EB2-477F-ABE0-AE22849739F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{12DD387A-0EB2-477F-ABE0-AE22849739F4}"/>
   </bookViews>
   <sheets>
     <sheet name="DL04" sheetId="3" r:id="rId1"/>
@@ -956,7 +956,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="531">
   <si>
     <t>DL04</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4809,110 +4809,6 @@
     <t xml:space="preserve">1、左心室射血
 2、LVEF
 </t>
-  </si>
-  <si>
-    <r>
-      <t>1、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HER2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>组织样本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ctDNA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>基因检测</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-5、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HER2检测</t>
-    </r>
   </si>
   <si>
     <t>1、妊娠
@@ -4964,6 +4860,217 @@
 16、脱发
 17、并发症</t>
   </si>
+  <si>
+    <r>
+      <t>1、非小细胞肺癌（NSCLC）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非鳞癌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；或者腺癌、大细胞癌、混合型以腺癌为主
+2、III期：局晚期不可切除
+3、IV期
+4、复发转移性非小细胞肺癌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1、姑息性全身治疗
+2、辅助治疗
+3、一线治疗
+4、全身治疗
+5、局部治疗
+6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、新辅助治疗
+7、铂类化疗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8、大于6个月</t>
+    </r>
+  </si>
+  <si>
+    <t>1、肺部疾病
+2、肺部受累
+3、自身免疫、
+4、肺切除
+5、并发疾病
+6、肺部状况
+7、肺栓塞
+8、重度哮喘
+9、重度COPD
+10、限制性肺部疾病
+11、胸腔积液
+12、类风湿性关节炎
+13、舍格林病
+14、肉状瘤病</t>
+  </si>
+  <si>
+    <t>经证实的合格HER2外显子19或20突变（合格的具有活性的HER2外显子19或20突变见附录O）
+a) 通过存档肿瘤组织样本（实验室资质要求方面的研究要求详见附录O）
+b) 通过可接受的非中心实验室的血浆ctDNA检测（符合该标准的可接受的检测见附录O）
+c) 无已知合格HER2突变状态结果的受试者将需要签署预筛选ICF，以允许采集血样进行HER2外显子19或20突变检测。在获得符合要求的中心实验室检测结果之前，不得开始主ICF和其他研究程序。</t>
+  </si>
+  <si>
+    <r>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HER2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组织样本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ctDNA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基因检测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HER2检测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6、实验室要求</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -4972,7 +5079,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5165,6 +5272,13 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -6843,16 +6957,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD63055-07F4-4594-8BE0-194FC94EB51F}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="169" customWidth="1"/>
-    <col min="3" max="3" width="52.77734375" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="77.5546875" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="27.21875" customWidth="1"/>
   </cols>
@@ -6991,7 +7105,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>526</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1" t="s">
@@ -7004,7 +7118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="81" customHeight="1">
+    <row r="8" spans="1:7" ht="136.80000000000001" customHeight="1">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -7016,7 +7130,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>442</v>
+        <v>527</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>500</v>
@@ -7025,19 +7139,19 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="96" customHeight="1">
+    <row r="9" spans="1:7" ht="116.4" customHeight="1">
       <c r="A9" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>529</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>499</v>
@@ -7195,7 +7309,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>495</v>
@@ -7965,15 +8079,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D784C70D-BB82-4D43-8C41-8A16CD8E3231}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="163.21875" customWidth="1"/>
-    <col min="3" max="4" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="27.21875" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="77"/>
@@ -8082,7 +8197,7 @@
         <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>508</v>
@@ -8105,7 +8220,7 @@
         <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>481</v>
@@ -8128,7 +8243,7 @@
         <v>96</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>482</v>
@@ -8285,7 +8400,7 @@
         <v>96</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>446</v>
+        <v>528</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>485</v>
@@ -11736,12 +11851,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11910,15 +12022,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFABE7C6-D1B3-4CD5-A6EF-ED1B84B759D8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B63F4C5-93C2-4082-B8DD-25012DD4CFEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11943,10 +12059,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B63F4C5-93C2-4082-B8DD-25012DD4CFEF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFABE7C6-D1B3-4CD5-A6EF-ED1B84B759D8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/new_graph_build/DL04_annotation_20220321 cyr combined.xlsx
+++ b/new_graph_build/DL04_annotation_20220321 cyr combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\weiping\dev\DCTA\rasa\new_graph_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9155F16B-EF2E-422F-B39A-C60C927A5C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44987BFA-26EF-4A70-9B0F-A8B1C0CBD903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{12DD387A-0EB2-477F-ABE0-AE22849739F4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{12DD387A-0EB2-477F-ABE0-AE22849739F4}"/>
   </bookViews>
   <sheets>
     <sheet name="DL04" sheetId="3" r:id="rId1"/>
@@ -4603,9 +4603,6 @@
     <t>方案</t>
   </si>
   <si>
-    <t>V2 组织学证实的不适合根治性治疗（手术或放化疗）的非鳞状3期局部晚期、不可切除NSCLC或4期或复发转移性NSCLC（根据IASLC胸部肿瘤学分期手册第8版）。如果腺癌是主要组织学类型，则混合组织学类型的受试者有资格参加研究</t>
-  </si>
-  <si>
     <t>入选标准</t>
   </si>
   <si>
@@ -5070,6 +5067,9 @@
       <t xml:space="preserve">
 6、实验室要求</t>
     </r>
+  </si>
+  <si>
+    <t>组织学证实的不适合根治性治疗（手术或放化疗）的非鳞状3期局部晚期、不可切除NSCLC或4期或复发转移性NSCLC（根据IASLC胸部肿瘤学分期手册第8版）。如果腺癌是主要组织学类型，则混合组织学类型的受试者有资格参加研究</t>
   </si>
 </sst>
 </file>
@@ -6486,8 +6486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8FC4D1-FD36-41E1-B9DB-3C57396D89CC}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6503,7 +6503,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="77" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6632,7 +6632,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
@@ -6735,7 +6735,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
@@ -6957,7 +6957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD63055-07F4-4594-8BE0-194FC94EB51F}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -6973,7 +6973,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7009,7 +7009,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G2" s="80">
         <v>63</v>
@@ -7049,7 +7049,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G4" s="80">
         <v>64</v>
@@ -7070,7 +7070,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G5" s="80">
         <v>64</v>
@@ -7091,7 +7091,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G6" s="80">
         <v>65</v>
@@ -7105,14 +7105,14 @@
         <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G7" s="80">
         <v>65</v>
@@ -7130,10 +7130,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G8" s="80">
         <v>65</v>
@@ -7144,17 +7144,17 @@
         <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G9" s="80">
         <v>65</v>
@@ -7175,7 +7175,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G10" s="80">
         <v>65</v>
@@ -7205,7 +7205,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
@@ -7250,7 +7250,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="80">
@@ -7270,7 +7270,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G15" s="80">
         <v>66</v>
@@ -7291,7 +7291,7 @@
         <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G16" s="80">
         <v>67</v>
@@ -7309,10 +7309,10 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G17" s="80">
         <v>67</v>
@@ -7333,7 +7333,7 @@
         <v>78</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G18" s="80">
         <v>67</v>
@@ -7354,7 +7354,7 @@
         <v>81</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G19" s="80">
         <v>68</v>
@@ -7574,7 +7574,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>99</v>
@@ -7687,7 +7687,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>119</v>
@@ -7710,7 +7710,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>121</v>
@@ -7733,7 +7733,7 @@
         <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -7800,7 +7800,7 @@
         <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -7844,7 +7844,7 @@
         <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>136</v>
@@ -7924,7 +7924,7 @@
         <v>148</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
@@ -7966,7 +7966,7 @@
         <v>155</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
@@ -8134,7 +8134,7 @@
         <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G2" s="77">
         <v>68</v>
@@ -8157,7 +8157,7 @@
         <v>469</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G3" s="77">
         <v>68</v>
@@ -8197,10 +8197,10 @@
         <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G5" s="77">
         <v>68</v>
@@ -8211,7 +8211,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>99</v>
@@ -8220,10 +8220,10 @@
         <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G6" s="77">
         <v>68</v>
@@ -8243,10 +8243,10 @@
         <v>96</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G7" s="77">
         <v>68</v>
@@ -8269,7 +8269,7 @@
         <v>109</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G8" s="77">
         <v>69</v>
@@ -8324,7 +8324,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>119</v>
@@ -8333,10 +8333,10 @@
         <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G11" s="77">
         <v>69</v>
@@ -8347,7 +8347,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>121</v>
@@ -8359,7 +8359,7 @@
         <v>444</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G12" s="77">
         <v>69</v>
@@ -8370,7 +8370,7 @@
         <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -8400,10 +8400,10 @@
         <v>96</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G14" s="77">
         <v>69</v>
@@ -8426,7 +8426,7 @@
         <v>447</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G15" s="77">
         <v>69</v>
@@ -8437,7 +8437,7 @@
         <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -8481,7 +8481,7 @@
         <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>136</v>
@@ -8493,7 +8493,7 @@
         <v>449</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G18" s="77">
         <v>70</v>
@@ -8522,7 +8522,7 @@
         <v>140</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -8550,7 +8550,7 @@
         <v>146</v>
       </c>
       <c r="F21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G21" s="77">
         <v>70</v>
@@ -8561,7 +8561,7 @@
         <v>148</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
@@ -8571,7 +8571,7 @@
         <v>149</v>
       </c>
       <c r="F22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G22" s="77">
         <v>70</v>
@@ -8592,7 +8592,7 @@
         <v>153</v>
       </c>
       <c r="F23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G23" s="77">
         <v>70</v>
@@ -8603,7 +8603,7 @@
         <v>155</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
@@ -8631,7 +8631,7 @@
         <v>159</v>
       </c>
       <c r="F25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G25" s="77">
         <v>70</v>
@@ -8652,7 +8652,7 @@
         <v>163</v>
       </c>
       <c r="F26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G26" s="77">
         <v>70</v>
@@ -11857,6 +11857,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010099F474F600D05146912A548CFFB3B3DE" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd1e41a35726873ac6091597d8bfca82">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="060f33fb-d6f8-41d3-bc35-c7620efd4ad0" xmlns:ns3="240bb027-5beb-4c51-8c68-3e71576f565c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e32dd6ec86430cdd980600f8bc57aae4" ns2:_="" ns3:_="">
     <xsd:import namespace="060f33fb-d6f8-41d3-bc35-c7620efd4ad0"/>
@@ -12021,15 +12030,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B63F4C5-93C2-4082-B8DD-25012DD4CFEF}">
   <ds:schemaRefs>
@@ -12040,6 +12040,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFABE7C6-D1B3-4CD5-A6EF-ED1B84B759D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70ABE67E-D87E-479A-B257-FE11B75E67E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12056,12 +12064,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFABE7C6-D1B3-4CD5-A6EF-ED1B84B759D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/new_graph_build/DL04_annotation_20220321 cyr combined.xlsx
+++ b/new_graph_build/DL04_annotation_20220321 cyr combined.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\weiping\dev\rasa_505\new_graph_build\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\weiping\dev\DCTA\rasa\new_graph_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E770D3-87CD-4730-9553-6F750023F2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292A114F-628D-479A-83B8-FB535685815E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{12DD387A-0EB2-477F-ABE0-AE22849739F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{12DD387A-0EB2-477F-ABE0-AE22849739F4}"/>
   </bookViews>
   <sheets>
     <sheet name="DL04" sheetId="3" r:id="rId1"/>
@@ -956,7 +956,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="532">
   <si>
     <t>DL04</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4603,9 +4603,6 @@
     <t>方案</t>
   </si>
   <si>
-    <t>V2 组织学证实的不适合根治性治疗（手术或放化疗）的非鳞状3期局部晚期、不可切除NSCLC或4期或复发转移性NSCLC（根据IASLC胸部肿瘤学分期手册第8版）。如果腺癌是主要组织学类型，则混合组织学类型的受试者有资格参加研究</t>
-  </si>
-  <si>
     <t>入选标准</t>
   </si>
   <si>
@@ -4805,6 +4802,291 @@
   <si>
     <t>基于筛选期三次12导联ECG结果平均值，QTcF延长至&gt;470 msec（女性）或&gt;450msec（男性）。</t>
   </si>
+  <si>
+    <t xml:space="preserve">1、左心室射血
+2、LVEF
+</t>
+  </si>
+  <si>
+    <t>1、妊娠
+2、绝育
+3、生殖方面
+4、女性
+5、HCG
+6、β-HCG
+7、绝经</t>
+  </si>
+  <si>
+    <t>1、感染
+2、高血压
+3、腹泻
+4、胃肠道疾病
+5、精神疾病
+6、AE
+7、并发症
+8、</t>
+  </si>
+  <si>
+    <t>1、自身免疫
+2、格雷夫斯病
+3、炎性肠病
+4、结肠炎
+5、克罗恩病
+6、憩室炎
+7、系统性红斑狼疮
+8、肉状瘤病
+9、肉芽肿伴多血管炎
+10、类风湿性关节炎
+11、垂体炎、
+12、葡萄膜炎、
+13、自身免疫性肺炎、
+14、自身免疫性心肌炎
+15、白癜风
+16、脱发
+17、并发症</t>
+  </si>
+  <si>
+    <r>
+      <t>1、非小细胞肺癌（NSCLC）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非鳞癌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；或者腺癌、大细胞癌、混合型以腺癌为主
+2、III期：局晚期不可切除
+3、IV期
+4、复发转移性非小细胞肺癌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1、姑息性全身治疗
+2、辅助治疗
+3、一线治疗
+4、全身治疗
+5、局部治疗
+6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、新辅助治疗
+7、铂类化疗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8、大于6个月</t>
+    </r>
+  </si>
+  <si>
+    <t>1、肺部疾病
+2、肺部受累
+3、自身免疫、
+4、肺切除
+5、并发疾病
+6、肺部状况
+7、肺栓塞
+8、重度哮喘
+9、重度COPD
+10、限制性肺部疾病
+11、胸腔积液
+12、类风湿性关节炎
+13、舍格林病
+14、肉状瘤病</t>
+  </si>
+  <si>
+    <t>经证实的合格HER2外显子19或20突变（合格的具有活性的HER2外显子19或20突变见附录O）
+a) 通过存档肿瘤组织样本（实验室资质要求方面的研究要求详见附录O）
+b) 通过可接受的非中心实验室的血浆ctDNA检测（符合该标准的可接受的检测见附录O）
+c) 无已知合格HER2突变状态结果的受试者将需要签署预筛选ICF，以允许采集血样进行HER2外显子19或20突变检测。在获得符合要求的中心实验室检测结果之前，不得开始主ICF和其他研究程序。</t>
+  </si>
+  <si>
+    <r>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HER2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组织样本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ctDNA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基因检测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HER2检测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6、实验室要求</t>
+    </r>
+  </si>
+  <si>
+    <t>组织学证实的不适合根治性治疗（手术或放化疗）的非鳞状3期局部晚期、不可切除NSCLC或4期或复发转移性NSCLC（根据IASLC胸部肿瘤学分期手册第8版）。如果腺癌是主要组织学类型，则混合组织学类型的受试者有资格参加研究</t>
+  </si>
+  <si>
+    <r>
+      <t>1、年龄
+2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性别</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1、CNS转移
+2、脊髓压迫
+3、软脑膜转移
+4、中枢神经转移
+5、脑放疗
+6、伽马刀
+7、立体定向放疗
+8、放疗
+9、脊髓、颅内转移 
+10、脑转移 </t>
+  </si>
 </sst>
 </file>
 
@@ -4813,7 +5095,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5006,6 +5288,13 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -6213,8 +6502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8FC4D1-FD36-41E1-B9DB-3C57396D89CC}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6230,7 +6519,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="77" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6359,7 +6648,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
@@ -6462,7 +6751,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
@@ -6684,23 +6973,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD63055-07F4-4594-8BE0-194FC94EB51F}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="169" customWidth="1"/>
-    <col min="3" max="3" width="52.77734375" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="77.5546875" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6736,7 +7025,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G2" s="80">
         <v>63</v>
@@ -6776,7 +7065,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G4" s="80">
         <v>64</v>
@@ -6797,7 +7086,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G5" s="80">
         <v>64</v>
@@ -6815,10 +7104,10 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>530</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G6" s="80">
         <v>65</v>
@@ -6832,20 +7121,20 @@
         <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>524</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G7" s="80">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="81" customHeight="1">
+    <row r="8" spans="1:7" ht="136.80000000000001" customHeight="1">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -6857,31 +7146,31 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>442</v>
+        <v>525</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G8" s="80">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="96" customHeight="1">
+    <row r="9" spans="1:7" ht="116.4" customHeight="1">
       <c r="A9" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>527</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>528</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G9" s="80">
         <v>65</v>
@@ -6902,7 +7191,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G10" s="80">
         <v>65</v>
@@ -6932,7 +7221,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
@@ -6977,7 +7266,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="80">
@@ -6997,7 +7286,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G15" s="80">
         <v>66</v>
@@ -7018,7 +7307,7 @@
         <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G16" s="80">
         <v>67</v>
@@ -7036,10 +7325,10 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>74</v>
+        <v>521</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G17" s="80">
         <v>67</v>
@@ -7060,7 +7349,7 @@
         <v>78</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G18" s="80">
         <v>67</v>
@@ -7081,7 +7370,7 @@
         <v>81</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G19" s="80">
         <v>68</v>
@@ -7170,7 +7459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070E72AF-FF6F-43FC-9531-A153FAD1DDB2}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -7301,7 +7590,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>99</v>
@@ -7414,7 +7703,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>119</v>
@@ -7437,7 +7726,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>121</v>
@@ -7460,7 +7749,7 @@
         <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -7527,7 +7816,7 @@
         <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -7571,7 +7860,7 @@
         <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>136</v>
@@ -7651,7 +7940,7 @@
         <v>148</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
@@ -7693,7 +7982,7 @@
         <v>155</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
@@ -7806,15 +8095,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D784C70D-BB82-4D43-8C41-8A16CD8E3231}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="163.21875" customWidth="1"/>
-    <col min="3" max="4" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="27.21875" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="77"/>
@@ -7860,7 +8150,7 @@
         <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G2" s="77">
         <v>68</v>
@@ -7883,7 +8173,7 @@
         <v>469</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G3" s="77">
         <v>68</v>
@@ -7923,10 +8213,10 @@
         <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>443</v>
+        <v>522</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G5" s="77">
         <v>68</v>
@@ -7937,7 +8227,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>99</v>
@@ -7946,10 +8236,10 @@
         <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>100</v>
+        <v>531</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G6" s="77">
         <v>68</v>
@@ -7969,10 +8259,10 @@
         <v>96</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>104</v>
+        <v>523</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G7" s="77">
         <v>68</v>
@@ -7995,7 +8285,7 @@
         <v>109</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G8" s="77">
         <v>69</v>
@@ -8050,7 +8340,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>119</v>
@@ -8059,10 +8349,10 @@
         <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G11" s="77">
         <v>69</v>
@@ -8073,7 +8363,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>121</v>
@@ -8085,7 +8375,7 @@
         <v>444</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G12" s="77">
         <v>69</v>
@@ -8096,7 +8386,7 @@
         <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -8126,10 +8416,10 @@
         <v>96</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>446</v>
+        <v>526</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G14" s="77">
         <v>69</v>
@@ -8152,7 +8442,7 @@
         <v>447</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G15" s="77">
         <v>69</v>
@@ -8163,7 +8453,7 @@
         <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -8207,7 +8497,7 @@
         <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>136</v>
@@ -8219,7 +8509,7 @@
         <v>449</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G18" s="77">
         <v>70</v>
@@ -8248,7 +8538,7 @@
         <v>140</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -8276,7 +8566,7 @@
         <v>146</v>
       </c>
       <c r="F21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G21" s="77">
         <v>70</v>
@@ -8287,7 +8577,7 @@
         <v>148</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
@@ -8297,7 +8587,7 @@
         <v>149</v>
       </c>
       <c r="F22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G22" s="77">
         <v>70</v>
@@ -8318,7 +8608,7 @@
         <v>153</v>
       </c>
       <c r="F23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G23" s="77">
         <v>70</v>
@@ -8329,7 +8619,7 @@
         <v>155</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
@@ -8357,7 +8647,7 @@
         <v>159</v>
       </c>
       <c r="F25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G25" s="77">
         <v>70</v>
@@ -8378,7 +8668,7 @@
         <v>163</v>
       </c>
       <c r="F26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G26" s="77">
         <v>70</v>
@@ -11577,12 +11867,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11751,15 +12038,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFABE7C6-D1B3-4CD5-A6EF-ED1B84B759D8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B63F4C5-93C2-4082-B8DD-25012DD4CFEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11784,10 +12075,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B63F4C5-93C2-4082-B8DD-25012DD4CFEF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFABE7C6-D1B3-4CD5-A6EF-ED1B84B759D8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/new_graph_build/DL04_annotation_20220321 cyr combined.xlsx
+++ b/new_graph_build/DL04_annotation_20220321 cyr combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\weiping\dev\DCTA\rasa\new_graph_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292A114F-628D-479A-83B8-FB535685815E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4186084F-89C2-4D24-85D8-17C0E241BD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{12DD387A-0EB2-477F-ABE0-AE22849739F4}"/>
   </bookViews>
@@ -956,7 +956,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="534">
   <si>
     <t>DL04</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1894,10 +1894,6 @@
   </si>
   <si>
     <t>发现方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、基因检测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2316,10 +2312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随机过、重复随机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第20条</t>
   </si>
   <si>
@@ -2378,10 +2370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>临床研究、IIT研究、研究者发起的研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第22条</t>
   </si>
   <si>
@@ -2423,10 +2411,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本院、本科室、阿斯利康、本公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4876,49 +4860,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>1、姑息性全身治疗
-2、辅助治疗
-3、一线治疗
-4、全身治疗
-5、局部治疗
-6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、新辅助治疗
-7、铂类化疗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8、大于6个月</t>
-    </r>
-  </si>
-  <si>
     <t>1、肺部疾病
 2、肺部受累
 3、自身免疫、
@@ -5086,6 +5027,95 @@
 8、放疗
 9、脊髓、颅内转移 
 10、脑转移 </t>
+  </si>
+  <si>
+    <r>
+      <t>1、姑息性全身治疗
+2、辅助治疗
+3、一线治疗
+4、全身治疗
+5、局部治疗
+6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、新辅助治疗
+7、铂类化疗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8、大于6个月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+9、二线治疗</t>
+    </r>
+  </si>
+  <si>
+    <t>4、其他突变</t>
+  </si>
+  <si>
+    <t>本院、本科室、阿斯利康、本公司</t>
+  </si>
+  <si>
+    <t>临床研究、IIT研究、研究者发起的研究</t>
+  </si>
+  <si>
+    <t>随机过、重复随机</t>
+  </si>
+  <si>
+    <r>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已随机</t>
+    </r>
+  </si>
+  <si>
+    <t>1、艾滋
+2、乙肝、HBV、甲肝
+3、丙肝、HCV、戊肝、庚型肝炎、丁型肝炎
+4、免疫缺陷、体液免疫缺陷、体液免疫缺陷、巨噬细胞缺陷</t>
   </si>
 </sst>
 </file>
@@ -6273,7 +6303,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="114.6" customHeight="1">
@@ -6281,7 +6311,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -6300,7 +6330,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -6319,7 +6349,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -6334,17 +6364,17 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -6519,7 +6549,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="77" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6537,7 +6567,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="79" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="183.6" customHeight="1">
@@ -6545,7 +6575,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -6648,14 +6678,14 @@
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>38</v>
@@ -6669,14 +6699,14 @@
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>41</v>
@@ -6739,7 +6769,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="80">
@@ -6751,7 +6781,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
@@ -6777,10 +6807,10 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G13" s="80">
         <v>65</v>
@@ -6796,7 +6826,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="80">
@@ -6848,7 +6878,7 @@
         <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>73</v>
@@ -6869,7 +6899,7 @@
         <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>77</v>
@@ -6890,10 +6920,10 @@
         <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -6973,8 +7003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD63055-07F4-4594-8BE0-194FC94EB51F}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6989,7 +7019,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7007,7 +7037,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="79" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="114.6" customHeight="1">
@@ -7015,7 +7045,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -7025,7 +7055,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G2" s="80">
         <v>63</v>
@@ -7065,7 +7095,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G4" s="80">
         <v>64</v>
@@ -7086,7 +7116,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G5" s="80">
         <v>64</v>
@@ -7104,10 +7134,10 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G6" s="80">
         <v>65</v>
@@ -7121,14 +7151,14 @@
         <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G7" s="80">
         <v>65</v>
@@ -7139,17 +7169,17 @@
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G8" s="80">
         <v>65</v>
@@ -7160,17 +7190,17 @@
         <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G9" s="80">
         <v>65</v>
@@ -7191,7 +7221,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G10" s="80">
         <v>65</v>
@@ -7209,7 +7239,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="80">
@@ -7221,7 +7251,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
@@ -7247,10 +7277,10 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G13" s="80">
         <v>65</v>
@@ -7266,7 +7296,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="80">
@@ -7286,7 +7316,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G15" s="80">
         <v>66</v>
@@ -7307,7 +7337,7 @@
         <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G16" s="80">
         <v>67</v>
@@ -7318,17 +7348,17 @@
         <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G17" s="80">
         <v>67</v>
@@ -7339,7 +7369,7 @@
         <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>77</v>
@@ -7349,7 +7379,7 @@
         <v>78</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G18" s="80">
         <v>67</v>
@@ -7360,17 +7390,17 @@
         <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G19" s="80">
         <v>68</v>
@@ -7459,8 +7489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070E72AF-FF6F-43FC-9531-A153FAD1DDB2}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="C13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7469,7 +7499,7 @@
     <col min="2" max="2" width="163.21875" style="77" customWidth="1"/>
     <col min="3" max="4" width="28.44140625" style="77" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" style="77" customWidth="1"/>
-    <col min="6" max="6" width="27.21875" style="77" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" style="77" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="77"/>
   </cols>
   <sheetData>
@@ -7493,7 +7523,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="114.6" customHeight="1">
@@ -7501,7 +7531,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>84</v>
@@ -7524,7 +7554,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>89</v>
@@ -7533,10 +7563,10 @@
         <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G3" s="77">
         <v>68</v>
@@ -7547,7 +7577,7 @@
         <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>89</v>
@@ -7556,7 +7586,7 @@
         <v>91</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>92</v>
+        <v>528</v>
       </c>
       <c r="G4" s="77">
         <v>68</v>
@@ -7564,22 +7594,22 @@
     </row>
     <row r="5" spans="1:7" ht="243" customHeight="1">
       <c r="A5" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="G5" s="77">
         <v>68</v>
@@ -7587,22 +7617,22 @@
     </row>
     <row r="6" spans="1:7" ht="201.6">
       <c r="A6" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="G6" s="77">
         <v>68</v>
@@ -7610,22 +7640,22 @@
     </row>
     <row r="7" spans="1:7" ht="324.60000000000002" customHeight="1">
       <c r="A7" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="G7" s="77">
         <v>68</v>
@@ -7633,22 +7663,22 @@
     </row>
     <row r="8" spans="1:7" ht="90" customHeight="1">
       <c r="A8" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="G8" s="77">
         <v>69</v>
@@ -7656,20 +7686,20 @@
     </row>
     <row r="9" spans="1:7" ht="57.9" customHeight="1">
       <c r="A9" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="G9" s="77">
         <v>69</v>
@@ -7680,19 +7710,19 @@
         <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="G10" s="77">
         <v>69</v>
@@ -7703,19 +7733,19 @@
         <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="G11" s="77">
         <v>69</v>
@@ -7726,19 +7756,19 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="G12" s="77">
         <v>69</v>
@@ -7749,17 +7779,17 @@
         <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G13" s="77">
         <v>69</v>
@@ -7770,19 +7800,19 @@
         <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="G14" s="77">
         <v>69</v>
@@ -7793,40 +7823,40 @@
         <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="G15" s="77">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="100.8">
+    <row r="16" spans="1:7" ht="72">
       <c r="A16" s="77" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>130</v>
+        <v>533</v>
       </c>
       <c r="G16" s="77">
         <v>69</v>
@@ -7834,22 +7864,22 @@
     </row>
     <row r="17" spans="1:7" ht="159.9" customHeight="1">
       <c r="A17" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="77" t="s">
+      <c r="F17" s="77" t="s">
         <v>133</v>
-      </c>
-      <c r="F17" s="77" t="s">
-        <v>134</v>
       </c>
       <c r="G17" s="77">
         <v>70</v>
@@ -7857,22 +7887,22 @@
     </row>
     <row r="18" spans="1:7" ht="221.4" customHeight="1">
       <c r="A18" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="G18" s="77">
         <v>70</v>
@@ -7883,14 +7913,14 @@
         <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" s="77">
         <v>70</v>
@@ -7898,17 +7928,17 @@
     </row>
     <row r="20" spans="1:7" ht="79.5" customHeight="1">
       <c r="A20" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G20" s="77">
         <v>70</v>
@@ -7916,41 +7946,41 @@
     </row>
     <row r="21" spans="1:7" ht="22.5" customHeight="1">
       <c r="A21" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>146</v>
+        <v>532</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>147</v>
+        <v>531</v>
       </c>
       <c r="G21" s="77">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="21.45" customHeight="1">
+    <row r="22" spans="1:7" ht="48.6" customHeight="1">
       <c r="A22" s="77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G22" s="77">
         <v>70</v>
@@ -7958,20 +7988,20 @@
     </row>
     <row r="23" spans="1:7" ht="37.950000000000003" customHeight="1">
       <c r="A23" s="77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F23" s="77" t="s">
-        <v>154</v>
+        <v>530</v>
       </c>
       <c r="G23" s="77">
         <v>70</v>
@@ -7979,17 +8009,17 @@
     </row>
     <row r="24" spans="1:7" ht="134.4" customHeight="1">
       <c r="A24" s="77" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G24" s="77">
         <v>70</v>
@@ -7997,20 +8027,20 @@
     </row>
     <row r="25" spans="1:7" ht="42" customHeight="1">
       <c r="A25" s="77" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F25" s="77" t="s">
-        <v>160</v>
+        <v>529</v>
       </c>
       <c r="G25" s="77">
         <v>70</v>
@@ -8018,20 +8048,20 @@
     </row>
     <row r="26" spans="1:7" ht="56.4" customHeight="1">
       <c r="A26" s="77" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26" s="77" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F26" s="77" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G26" s="77">
         <v>70</v>
@@ -8039,20 +8069,20 @@
     </row>
     <row r="27" spans="1:7" ht="61.95" customHeight="1">
       <c r="A27" s="77" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G27" s="77">
         <v>70</v>
@@ -8060,22 +8090,22 @@
     </row>
     <row r="28" spans="1:7" ht="103.95" customHeight="1">
       <c r="A28" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="G28" s="77">
         <v>71</v>
@@ -8095,8 +8125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D784C70D-BB82-4D43-8C41-8A16CD8E3231}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8130,7 +8160,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="114.6" customHeight="1">
@@ -8138,7 +8168,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>84</v>
@@ -8150,7 +8180,7 @@
         <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G2" s="77">
         <v>68</v>
@@ -8161,7 +8191,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>89</v>
@@ -8170,10 +8200,10 @@
         <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G3" s="77">
         <v>68</v>
@@ -8184,7 +8214,7 @@
         <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>89</v>
@@ -8193,7 +8223,7 @@
         <v>91</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>92</v>
+        <v>528</v>
       </c>
       <c r="G4" s="77">
         <v>68</v>
@@ -8201,22 +8231,22 @@
     </row>
     <row r="5" spans="1:7" ht="243" customHeight="1">
       <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G5" s="77">
         <v>68</v>
@@ -8224,22 +8254,22 @@
     </row>
     <row r="6" spans="1:7" ht="201.6">
       <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G6" s="77">
         <v>68</v>
@@ -8247,22 +8277,22 @@
     </row>
     <row r="7" spans="1:7" ht="324.60000000000002" customHeight="1">
       <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G7" s="77">
         <v>68</v>
@@ -8270,22 +8300,22 @@
     </row>
     <row r="8" spans="1:7" ht="90" customHeight="1">
       <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G8" s="77">
         <v>69</v>
@@ -8293,20 +8323,20 @@
     </row>
     <row r="9" spans="1:7" ht="57.9" customHeight="1">
       <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="G9" s="77">
         <v>69</v>
@@ -8317,19 +8347,19 @@
         <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="G10" s="77">
         <v>69</v>
@@ -8340,19 +8370,19 @@
         <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G11" s="77">
         <v>69</v>
@@ -8363,19 +8393,19 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G12" s="77">
         <v>69</v>
@@ -8386,17 +8416,17 @@
         <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G13" s="77">
         <v>69</v>
@@ -8407,19 +8437,19 @@
         <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G14" s="77">
         <v>69</v>
@@ -8430,19 +8460,19 @@
         <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G15" s="77">
         <v>69</v>
@@ -8453,17 +8483,17 @@
         <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16" s="77">
         <v>69</v>
@@ -8471,22 +8501,22 @@
     </row>
     <row r="17" spans="1:7" ht="159.9" customHeight="1">
       <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>133</v>
-      </c>
-      <c r="F17" t="s">
-        <v>134</v>
       </c>
       <c r="G17" s="77">
         <v>70</v>
@@ -8494,22 +8524,22 @@
     </row>
     <row r="18" spans="1:7" ht="221.4" customHeight="1">
       <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G18" s="77">
         <v>70</v>
@@ -8520,14 +8550,14 @@
         <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" s="77">
         <v>70</v>
@@ -8535,17 +8565,17 @@
     </row>
     <row r="20" spans="1:7" ht="79.5" customHeight="1">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G20" s="77">
         <v>70</v>
@@ -8553,20 +8583,20 @@
     </row>
     <row r="21" spans="1:7" ht="22.5" customHeight="1">
       <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="F21" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G21" s="77">
         <v>70</v>
@@ -8574,20 +8604,20 @@
     </row>
     <row r="22" spans="1:7" ht="21.45" customHeight="1">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F22" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G22" s="77">
         <v>70</v>
@@ -8595,20 +8625,20 @@
     </row>
     <row r="23" spans="1:7" ht="37.950000000000003" customHeight="1">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F23" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G23" s="77">
         <v>70</v>
@@ -8616,17 +8646,17 @@
     </row>
     <row r="24" spans="1:7" ht="134.4" customHeight="1">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G24" s="77">
         <v>70</v>
@@ -8634,20 +8664,20 @@
     </row>
     <row r="25" spans="1:7" ht="42" customHeight="1">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F25" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G25" s="77">
         <v>70</v>
@@ -8655,20 +8685,20 @@
     </row>
     <row r="26" spans="1:7" ht="56.4" customHeight="1">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F26" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G26" s="77">
         <v>70</v>
@@ -8676,20 +8706,20 @@
     </row>
     <row r="27" spans="1:7" ht="61.95" customHeight="1">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G27" s="77">
         <v>70</v>
@@ -8697,22 +8727,22 @@
     </row>
     <row r="28" spans="1:7" ht="103.95" customHeight="1">
       <c r="A28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="G28" s="77">
         <v>71</v>
@@ -8754,34 +8784,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24">
       <c r="A1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="I1" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>182</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="48">
@@ -8792,26 +8822,26 @@
         <v>44363</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="84">
@@ -8822,26 +8852,26 @@
         <v>44363</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>189</v>
-      </c>
       <c r="G3" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="84">
@@ -8852,26 +8882,26 @@
         <v>44364</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="132">
@@ -8882,26 +8912,26 @@
         <v>44364</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="213" customHeight="1">
@@ -8912,26 +8942,26 @@
         <v>44365</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36">
@@ -8942,26 +8972,26 @@
         <v>44370</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>206</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36">
@@ -8972,26 +9002,26 @@
         <v>44370</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="72">
@@ -9002,26 +9032,26 @@
         <v>44356</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36">
@@ -9031,17 +9061,17 @@
       <c r="D10" s="15"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>212</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>216</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="72">
@@ -9051,17 +9081,17 @@
       <c r="D11" s="15"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="144">
@@ -9069,29 +9099,29 @@
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="H12" s="12" t="s">
         <v>221</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="72">
@@ -9099,29 +9129,29 @@
         <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>226</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>230</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="132">
@@ -9129,29 +9159,29 @@
         <v>11</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>231</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>235</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="96">
@@ -9162,26 +9192,26 @@
         <v>44386</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="144">
@@ -9192,26 +9222,26 @@
         <v>44407</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="72">
@@ -9222,26 +9252,26 @@
         <v>44407</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>245</v>
-      </c>
       <c r="E17" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="156">
@@ -9252,26 +9282,26 @@
         <v>44412</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="180">
@@ -9283,17 +9313,17 @@
       <c r="D19" s="15"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="84">
@@ -9304,26 +9334,26 @@
         <v>44414</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="72">
@@ -9334,26 +9364,26 @@
         <v>44414</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D21" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>259</v>
-      </c>
       <c r="H21" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="72">
@@ -9364,26 +9394,26 @@
         <v>44414</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D22" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>259</v>
-      </c>
       <c r="H22" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="48">
@@ -9394,26 +9424,26 @@
         <v>44421</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F23" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="G23" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="G23" s="27" t="s">
-        <v>266</v>
-      </c>
       <c r="H23" s="27" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="27" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="37.200000000000003" customHeight="1">
@@ -9423,17 +9453,17 @@
       <c r="D24" s="28"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="27" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="72">
@@ -9444,26 +9474,26 @@
         <v>44434</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="60">
@@ -9473,17 +9503,17 @@
       <c r="D26" s="24"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="24">
@@ -9493,17 +9523,17 @@
       <c r="D27" s="24"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="240">
@@ -9514,26 +9544,26 @@
         <v>44326</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36">
@@ -9544,24 +9574,24 @@
         <v>44387</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36">
@@ -9569,27 +9599,27 @@
         <v>24</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C30" s="14">
         <v>7401</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36">
@@ -9597,27 +9627,27 @@
         <v>25</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C31" s="14">
         <v>7401</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36">
@@ -9628,24 +9658,24 @@
         <v>44503</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36">
@@ -9659,21 +9689,21 @@
         <v>4301</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="96">
@@ -9684,26 +9714,26 @@
         <v>44538</v>
       </c>
       <c r="C34" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>281</v>
-      </c>
       <c r="E34" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="151.94999999999999" customHeight="1">
@@ -9717,21 +9747,21 @@
         <v>4301</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="60">
@@ -9745,23 +9775,23 @@
         <v>4304</v>
       </c>
       <c r="D36" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>290</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>294</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="37.950000000000003" customHeight="1">
@@ -9775,23 +9805,23 @@
         <v>4301</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="36">
@@ -9805,23 +9835,23 @@
         <v>4301</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E38" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F38" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="F38" s="27" t="s">
-        <v>300</v>
-      </c>
       <c r="G38" s="12" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="27" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="58.95" customHeight="1">
@@ -9835,23 +9865,23 @@
         <v>4301</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="48">
@@ -9865,23 +9895,23 @@
         <v>4301</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I40" s="12"/>
       <c r="J40" s="12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="60">
@@ -9895,23 +9925,23 @@
         <v>4301</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E41" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="F41" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="F41" s="27" t="s">
-        <v>300</v>
-      </c>
       <c r="G41" s="27" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I41" s="27"/>
       <c r="J41" s="27" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="36">
@@ -9925,21 +9955,21 @@
         <v>4301</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="330" customHeight="1">
@@ -9953,21 +9983,21 @@
         <v>7405</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="60">
@@ -9981,23 +10011,23 @@
         <v>6002</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="65.7" customHeight="1">
@@ -10007,17 +10037,17 @@
       <c r="D45" s="15"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="65.7" customHeight="1">
@@ -10027,17 +10057,17 @@
       <c r="D46" s="15"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="72">
@@ -10051,23 +10081,23 @@
         <v>6002</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="36">
@@ -10081,21 +10111,21 @@
         <v>4305</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="144">
@@ -10106,26 +10136,26 @@
         <v>44586</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="132">
@@ -10136,26 +10166,26 @@
         <v>44586</v>
       </c>
       <c r="C50" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="H50" s="12" t="s">
         <v>323</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>327</v>
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="60">
@@ -10166,26 +10196,26 @@
         <v>44587</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="60">
@@ -10196,26 +10226,26 @@
         <v>44587</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="60">
@@ -10229,23 +10259,23 @@
         <v>4303</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="252">
@@ -10259,23 +10289,23 @@
         <v>4301</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I54" s="12"/>
       <c r="J54" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="36">
@@ -10289,21 +10319,21 @@
         <v>4301</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I55" s="12"/>
       <c r="J55" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="36">
@@ -10317,21 +10347,21 @@
         <v>4305</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I56" s="12"/>
       <c r="J56" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="36">
@@ -10345,21 +10375,21 @@
         <v>4305</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I57" s="12"/>
       <c r="J57" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="36">
@@ -10369,17 +10399,17 @@
       <c r="D58" s="16"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I58" s="12"/>
       <c r="J58" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="108">
@@ -10393,23 +10423,23 @@
         <v>7407</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I59" s="14"/>
       <c r="J59" s="14" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="204">
@@ -10423,23 +10453,23 @@
         <v>4313</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="96">
@@ -10453,21 +10483,21 @@
         <v>4101</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E61" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="G61" s="37" t="s">
         <v>337</v>
-      </c>
-      <c r="F61" s="37" t="s">
-        <v>340</v>
-      </c>
-      <c r="G61" s="37" t="s">
-        <v>341</v>
       </c>
       <c r="H61" s="37"/>
       <c r="I61" s="37"/>
       <c r="J61" s="37" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -10497,486 +10527,486 @@
   <sheetData>
     <row r="1" spans="1:8" s="42" customFormat="1" ht="46.5" customHeight="1">
       <c r="A1" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>182</v>
-      </c>
       <c r="F1" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="47" customFormat="1" ht="57.6">
       <c r="A2" s="43" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="45" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="84">
       <c r="A3" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="48" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="96">
       <c r="A4" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="48" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="47" customFormat="1" ht="48">
       <c r="A5" s="43" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E5" s="43"/>
       <c r="F5" s="45" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="84">
       <c r="A6" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="48" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8" ht="166.5" customHeight="1">
       <c r="A7" s="54" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E7" s="54"/>
       <c r="F7" s="55" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60">
       <c r="A8" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>189</v>
-      </c>
       <c r="C8" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="48" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G8" s="53"/>
       <c r="H8" s="53"/>
     </row>
     <row r="9" spans="1:8" ht="84">
       <c r="A9" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="48" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="48">
       <c r="A10" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="48" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="156">
       <c r="A11" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="48" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="60">
       <c r="A12" s="14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="56" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:8" ht="43.2">
       <c r="A13" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>300</v>
-      </c>
       <c r="C13" s="54" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E13" s="54"/>
       <c r="F13" s="58" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="36">
       <c r="A14" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>300</v>
-      </c>
       <c r="C14" s="57" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:8" ht="36">
       <c r="A15" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="48" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G15" s="59" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="72">
       <c r="A16" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="48" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G16" s="59" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="132">
       <c r="A17" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="48" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="108">
       <c r="A18" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="48" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G18" s="59" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H18" s="59" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="96">
       <c r="A19" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="48" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G19" s="59" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H19" s="59" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="43.2">
       <c r="A20" s="27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B20" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>266</v>
-      </c>
       <c r="D20" s="27" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="60" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G20" s="59" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H20" s="59" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="48">
       <c r="A21" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="48" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G21" s="53"/>
       <c r="H21" s="53"/>
@@ -10984,17 +11014,17 @@
     <row r="22" spans="1:8" ht="48">
       <c r="A22" s="12"/>
       <c r="B22" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="48" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G22" s="53"/>
       <c r="H22" s="53"/>
@@ -11002,17 +11032,17 @@
     <row r="23" spans="1:8" ht="36">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="48" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G23" s="53"/>
       <c r="H23" s="53"/>
@@ -11020,319 +11050,319 @@
     <row r="24" spans="1:8" ht="60">
       <c r="A24" s="54"/>
       <c r="B24" s="54" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E24" s="62"/>
       <c r="F24" s="55" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="36">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="48" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="72">
       <c r="A26" s="27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="G26" t="s">
+        <v>379</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="G26" t="s">
-        <v>383</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="108">
       <c r="A27" s="27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G27" s="49"/>
       <c r="H27" s="49"/>
     </row>
     <row r="28" spans="1:8" ht="84">
       <c r="A28" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="48">
       <c r="A29" s="63" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E29" s="63"/>
       <c r="F29" s="63" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="48">
       <c r="A30" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
     </row>
     <row r="31" spans="1:8" ht="115.2">
       <c r="A31" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G31" s="49" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H31" s="49" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="132">
       <c r="A32" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G32" s="49" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H32" s="49" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="228">
       <c r="A33" s="27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E33" s="27"/>
       <c r="F33" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H33" s="49" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="132">
       <c r="A34" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G34" s="49" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H34" s="49" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="156">
       <c r="A35" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G35" s="49" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H35" s="49" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="180">
       <c r="A36" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G36" s="49" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H36" s="49" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="60">
       <c r="A37" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G37" s="49"/>
       <c r="H37" s="49"/>
@@ -11340,17 +11370,17 @@
     <row r="38" spans="1:8" ht="48">
       <c r="A38" s="16"/>
       <c r="B38" s="16" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G38" s="49"/>
       <c r="H38" s="49"/>
@@ -11377,70 +11407,70 @@
     </row>
     <row r="41" spans="1:8" ht="48">
       <c r="A41" s="54" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B41" s="54" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D41" s="54" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E41" s="62"/>
       <c r="F41" s="55" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G41" s="53"/>
       <c r="H41" s="53"/>
     </row>
     <row r="42" spans="1:8" ht="151.94999999999999" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="48" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G42" s="49" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H42" s="49" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="28.8">
       <c r="A43" s="54" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B43" s="54" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C43" s="54" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D43" s="54" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="55" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G43" s="49" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H43" s="49" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="330" customHeight="1">
@@ -11457,402 +11487,402 @@
     </row>
     <row r="45" spans="1:8" ht="43.2">
       <c r="A45" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="48" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G45" s="49" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8">
       <c r="A46" s="12" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="48" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G46" s="49" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H46" s="49" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="48">
       <c r="A47" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="48" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H47" s="49" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="48">
       <c r="A48" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="48" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G48" s="50" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H48" s="49" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="43.2">
       <c r="A49" s="12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E49" s="27"/>
       <c r="F49" s="48" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G49" s="50" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H49" s="49" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="60">
       <c r="A50" s="64" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B50" s="65" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C50" s="57" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D50" s="66" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E50" s="62"/>
       <c r="F50" s="67" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
     </row>
     <row r="51" spans="1:8" ht="48">
       <c r="A51" s="68" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B51" s="67" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C51" s="61" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E51" s="61"/>
       <c r="F51" s="69" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G51" s="49" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H51" s="70" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="43.2">
       <c r="A52" s="68" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B52" s="54" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C52" s="71" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D52" s="71" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E52" s="71"/>
       <c r="F52" s="55" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G52" s="50" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H52" s="49" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="43.2">
       <c r="A53" s="68" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B53" s="54" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C53" s="54" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D53" s="54" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E53" s="54"/>
       <c r="F53" s="55" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G53" s="49" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H53" s="49" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="60">
       <c r="A54" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="B54" s="72" t="s">
+        <v>336</v>
+      </c>
+      <c r="C54" s="72" t="s">
         <v>337</v>
-      </c>
-      <c r="B54" s="72" t="s">
-        <v>340</v>
-      </c>
-      <c r="C54" s="72" t="s">
-        <v>341</v>
       </c>
       <c r="D54" s="72"/>
       <c r="E54" s="72"/>
       <c r="F54" s="73" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G54" s="53"/>
       <c r="H54" s="53"/>
     </row>
     <row r="55" spans="1:8" ht="43.2">
       <c r="A55" s="54" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C55" s="74" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E55" s="61"/>
       <c r="F55" s="75" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G55" s="49" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H55" s="49" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="24">
       <c r="A56" s="54"/>
       <c r="B56" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" s="61" t="s">
         <v>212</v>
-      </c>
-      <c r="C56" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="D56" s="61" t="s">
-        <v>216</v>
       </c>
       <c r="E56" s="61"/>
       <c r="F56" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="G56" s="50" t="s">
+        <v>435</v>
+      </c>
+      <c r="H56" s="49" t="s">
         <v>212</v>
-      </c>
-      <c r="G56" s="50" t="s">
-        <v>439</v>
-      </c>
-      <c r="H56" s="49" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="28.8">
       <c r="A57" s="57"/>
       <c r="B57" s="57" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C57" s="58" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E57" s="61"/>
       <c r="F57" s="76" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G57" s="49" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H57" s="49" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="24">
       <c r="A58" s="54"/>
       <c r="B58" s="54" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C58" s="55" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E58" s="61"/>
       <c r="F58" s="75" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G58" s="49" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H58" s="49" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="48">
       <c r="A59" s="54" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C59" s="54" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D59" s="71" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E59" s="71"/>
       <c r="F59" s="55" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G59" s="50"/>
       <c r="H59" s="50"/>
     </row>
     <row r="60" spans="1:8" ht="120">
       <c r="A60" s="54" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C60" s="54" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D60" s="54" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E60" s="54"/>
       <c r="F60" s="55" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G60" s="50" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H60" s="49" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="108">
       <c r="A61" s="12"/>
       <c r="B61" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="48" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G61" s="53"/>
       <c r="H61" s="53"/>
     </row>
     <row r="62" spans="1:8" ht="72">
       <c r="A62" s="54" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B62" s="54" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C62" s="54" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D62" s="54" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E62" s="54"/>
       <c r="F62" s="55" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G62" s="53"/>
       <c r="H62" s="53"/>
@@ -11867,9 +11897,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12038,19 +12071,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B63F4C5-93C2-4082-B8DD-25012DD4CFEF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFABE7C6-D1B3-4CD5-A6EF-ED1B84B759D8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12075,9 +12104,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFABE7C6-D1B3-4CD5-A6EF-ED1B84B759D8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B63F4C5-93C2-4082-B8DD-25012DD4CFEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/new_graph_build/DL04_annotation_20220321 cyr combined.xlsx
+++ b/new_graph_build/DL04_annotation_20220321 cyr combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\weiping\dev\DCTA\rasa\new_graph_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4186084F-89C2-4D24-85D8-17C0E241BD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85557A2B-C319-408A-9A3B-793DE090684E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{12DD387A-0EB2-477F-ABE0-AE22849739F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{12DD387A-0EB2-477F-ABE0-AE22849739F4}"/>
   </bookViews>
   <sheets>
     <sheet name="DL04" sheetId="3" r:id="rId1"/>
@@ -956,7 +956,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="537">
   <si>
     <t>DL04</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5116,6 +5116,135 @@
 2、乙肝、HBV、甲肝
 3、丙肝、HCV、戊肝、庚型肝炎、丁型肝炎
 4、免疫缺陷、体液免疫缺陷、体液免疫缺陷、巨噬细胞缺陷</t>
+  </si>
+  <si>
+    <r>
+      <t>1、避孕
+2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生殖方面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>女性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4、性别</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>捐献精子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>避孕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生殖方面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4、男性
+5、性别</t>
+    </r>
+  </si>
+  <si>
+    <t>1、肿瘤样本
+2、活检
+3、FFPE
+4、肿瘤组织
+5、病理切片</t>
   </si>
 </sst>
 </file>
@@ -7003,8 +7132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD63055-07F4-4594-8BE0-194FC94EB51F}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7218,7 +7347,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>536</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>493</v>
@@ -7376,7 +7505,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>78</v>
+        <v>534</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>491</v>
@@ -7397,7 +7526,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>81</v>
+        <v>535</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>492</v>
@@ -8125,7 +8254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D784C70D-BB82-4D43-8C41-8A16CD8E3231}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
